--- a/data_stage2/feature mapping.xlsx
+++ b/data_stage2/feature mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jj/OneDrive - National University of Singapore/Machine Learning/ML project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OneDrive - National University of Singapore\Machine Learning\ML project\network_model_for_credit_scoring\data_stage2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3A009A-BAB5-5646-96EC-0403C642507D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B204AF-432C-4E49-8075-9EF60BF0D6A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4160" yWindow="2960" windowWidth="27180" windowHeight="16540" xr2:uid="{F3064B6A-123B-3947-A2D7-43280BBDEBBA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{F3064B6A-123B-3947-A2D7-43280BBDEBBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -288,20 +282,20 @@
     <t>(M8-M3-M4)/M6</t>
   </si>
   <si>
-    <t>V28</t>
-  </si>
-  <si>
-    <t>Total Revenue/Revenue</t>
-  </si>
-  <si>
-    <t>M3/V23</t>
+    <t>M9</t>
+  </si>
+  <si>
+    <t>V18/V25</t>
+  </si>
+  <si>
+    <t>Constraint Financial PL/EBITDA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -648,17 +642,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F497F0-41A6-4445-88D0-97C618898497}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="70" customWidth="1"/>
     <col min="3" max="3" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -669,7 +663,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -680,7 +674,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -688,7 +682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -696,7 +690,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -707,7 +701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -718,7 +712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -726,7 +720,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -737,7 +731,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -745,7 +739,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -753,7 +747,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -761,7 +755,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -769,7 +763,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -780,7 +774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -788,7 +782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -796,7 +790,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -807,7 +801,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -815,7 +809,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -823,7 +817,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -831,7 +825,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -839,7 +833,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -847,7 +841,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -858,7 +852,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -866,7 +860,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -877,7 +871,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -888,7 +882,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -899,108 +893,108 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>53</v>
-      </c>
-      <c r="B27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>70</v>
-      </c>
-      <c r="B31" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>78</v>
-      </c>
-      <c r="B34" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>82</v>
-      </c>
-      <c r="B35" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>65</v>
       </c>
       <c r="B36" t="s">
         <v>64</v>
@@ -1012,15 +1006,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="B37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" t="s">
         <v>86</v>
-      </c>
-      <c r="C37" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
